--- a/gantt-diagram.xlsx
+++ b/gantt-diagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SULESZ\E\RF1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SULESZ\E\RF1\2023_ib153i-11_b\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>Mindenki</t>
   </si>
@@ -110,9 +110,6 @@
     <t>8.1.6. Projektterv 7. pontjának kitöltése</t>
   </si>
   <si>
-    <t>Mackovic Mark</t>
-  </si>
-  <si>
     <t>8.1.7. Projektterv 8.1-8.2. pontjának kitöltése</t>
   </si>
   <si>
@@ -164,94 +161,109 @@
     <t>8.3.3 Express szerver beüzemelése</t>
   </si>
   <si>
-    <t>8.3.5 Áruház oldal létrehozása (R)</t>
-  </si>
-  <si>
-    <t>8.3.6 Kosár oldal létrehozása (kosár cookie)</t>
-  </si>
-  <si>
     <t>8.3.4 Login oldal létrehozása (CR)</t>
   </si>
   <si>
-    <t>8.3.8 Megrendelés elküldése (kosár cookie kezelése, C)</t>
-  </si>
-  <si>
-    <t>8.3.9 Megrendelés törlése (D)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3.7 Megrendelés oldal létrehozása </t>
-  </si>
-  <si>
-    <t>8.3.10 Megrendelések megtekintése (R)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3.11 Admin oldal létrehozása </t>
-  </si>
-  <si>
-    <t>8.3.12 Admin oldal felhasználók megtekintése (R)</t>
-  </si>
-  <si>
-    <t>8.3.13 Admin oldal felhasználók kezelése (CRUD)</t>
-  </si>
-  <si>
-    <t>8.3.14 Termék információ oldal létrehozása (R)</t>
-  </si>
-  <si>
-    <t>8.3.15 Kommentek megvalósítása (CRUD)</t>
-  </si>
-  <si>
-    <t>8.3.16 kommentek kezelése (RD)</t>
-  </si>
-  <si>
-    <t>8.3.17 Termékek kezelése oldal létrehozása (CRUD)</t>
-  </si>
-  <si>
-    <t>8.3.18 Új termék hozzáadása (C)</t>
-  </si>
-  <si>
-    <t>8.3.20 Termék törlése (D)</t>
-  </si>
-  <si>
-    <t>8.3.19 Termék módosítása (RU)</t>
-  </si>
-  <si>
-    <t>8.4.1 Egyéb kimaradt funkciók megvalósítása</t>
-  </si>
-  <si>
-    <t>8.4.2 Nem elvárásoknak megfelelően működő funkciók javítása</t>
-  </si>
-  <si>
-    <t>8.4.3 Regisztráció tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.4 Login tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.5 Kosárba helyezés tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.6 Megrendelés tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.7 Admin:  felhasználó szerepkörének módosításának tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.8 Admin:  felhasználó törlésének tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.9 Komment létrehozásának tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.10 Komment törlésének tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.11 Termék hozzáadás tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.12 Termék módosítás tesztelése</t>
-  </si>
-  <si>
-    <t>8.4.12 Termék törlés tesztelése</t>
+    <t>8.3.8 Kosár oldal létrehozása (kosár cookie)</t>
+  </si>
+  <si>
+    <t>8.3.5 Login oldal létrehozása</t>
+  </si>
+  <si>
+    <t>8.3.6 Áruház oldal létrehozása ( R)</t>
+  </si>
+  <si>
+    <t>8.3.7 Áruház oldal létrehozása</t>
+  </si>
+  <si>
+    <t>8.3.9 Megrendelés oldal létrehozása</t>
+  </si>
+  <si>
+    <t>8.3.10 Megrendelés elküldése (kosár cookie kezelése, C)</t>
+  </si>
+  <si>
+    <t>8.3.11 Megrendelések megtekintése ( R)</t>
+  </si>
+  <si>
+    <t>8.3.12 Admin oldal létrehozása</t>
+  </si>
+  <si>
+    <t>8.3.13 Admin oldal felhasználók megtekintése ( R)</t>
+  </si>
+  <si>
+    <t>8.3.14 Admin oldal felhasználók kezelése (CRUD)</t>
+  </si>
+  <si>
+    <t>8.3.16 Kommentek megvalósítása</t>
+  </si>
+  <si>
+    <t>8.3.17 Kommentek megvalósítása (CRUD)</t>
+  </si>
+  <si>
+    <t>8.3.18 Kommentek kezelése (UD)</t>
+  </si>
+  <si>
+    <t>8.3.19 Termékek kezelése oldal létrehozása</t>
+  </si>
+  <si>
+    <t>8.3.20 Új termék hozzáadása ( C)</t>
+  </si>
+  <si>
+    <t>8.3.21 Termék módosítása (U)</t>
+  </si>
+  <si>
+    <t>8.3.22 Termék törlése (D)</t>
+  </si>
+  <si>
+    <t>8.3.15 Termék információ oldal létrehozása ( R)</t>
+  </si>
+  <si>
+    <t>8.4.1 Meglévő funkciók összevetése a funkciók listájával</t>
+  </si>
+  <si>
+    <t>8.4.2 Kimaradt funkciók megvalósítása</t>
+  </si>
+  <si>
+    <t>8.4.3 Nem elvárásoknak megfelelően működő funkciók javítása</t>
+  </si>
+  <si>
+    <t>8.4.4 Regisztráció tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.5 Login tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.6 Kosárba helyezés tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.7 Megrendelés tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.8 Felhasználó adatainak szerkesztésének tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.9 Admin: Felhasználó szerepkörének módosításának tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.10 Admin: Felhasználó törlésének tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.11 Komment létrehozásának tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.12 Komment törlésének tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.13 Termék hozzáadás tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.14 Termék módosítás tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.15 Termék törlés tesztelése</t>
+  </si>
+  <si>
+    <t>8.4.16 Adatbázis tesztelése</t>
   </si>
 </sst>
 </file>
@@ -693,7 +705,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -873,8 +885,8 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -893,12 +905,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1304,10 +1310,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD63"/>
+  <dimension ref="A1:CD68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2584,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C13" s="31">
         <v>45200</v>
@@ -2665,7 +2673,7 @@
     </row>
     <row r="14" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="63" t="s">
         <v>17</v>
@@ -2674,7 +2682,7 @@
         <v>45200</v>
       </c>
       <c r="D14" s="31">
-        <v>45200</v>
+        <v>45201</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="55"/>
@@ -2683,8 +2691,8 @@
       <c r="I14" s="55"/>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="55"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="55"/>
       <c r="O14" s="55"/>
       <c r="P14" s="55"/>
@@ -2757,7 +2765,7 @@
     </row>
     <row r="15" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>12</v>
@@ -2766,7 +2774,7 @@
         <v>45199</v>
       </c>
       <c r="D15" s="31">
-        <v>45199</v>
+        <v>45200</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="55"/>
@@ -2774,8 +2782,8 @@
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="55"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="55"/>
       <c r="N15" s="55"/>
       <c r="O15" s="55"/>
@@ -2849,7 +2857,7 @@
     </row>
     <row r="16" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="63" t="s">
         <v>14</v>
@@ -2941,7 +2949,7 @@
     </row>
     <row r="17" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="63" t="s">
         <v>26</v>
@@ -2964,8 +2972,8 @@
       <c r="N17" s="55"/>
       <c r="O17" s="55"/>
       <c r="P17" s="55"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
@@ -3033,7 +3041,7 @@
     </row>
     <row r="18" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="63" t="s">
         <v>12</v>
@@ -3211,13 +3219,17 @@
     </row>
     <row r="20" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="37">
+        <v>45212</v>
+      </c>
+      <c r="D20" s="37">
+        <v>45213</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
@@ -3237,8 +3249,8 @@
       <c r="U20" s="55"/>
       <c r="V20" s="55"/>
       <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
       <c r="Z20" s="55"/>
       <c r="AA20" s="55"/>
       <c r="AB20" s="55"/>
@@ -3299,13 +3311,17 @@
     </row>
     <row r="21" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="37">
+        <v>45211</v>
+      </c>
+      <c r="D21" s="37">
+        <v>45212</v>
+      </c>
       <c r="E21" s="14"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
@@ -3324,8 +3340,8 @@
       <c r="T21" s="55"/>
       <c r="U21" s="55"/>
       <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
       <c r="Y21" s="55"/>
       <c r="Z21" s="55"/>
       <c r="AA21" s="55"/>
@@ -3387,13 +3403,17 @@
     </row>
     <row r="22" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="37">
+        <v>45211</v>
+      </c>
+      <c r="D22" s="37">
+        <v>45213</v>
+      </c>
       <c r="E22" s="14"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
@@ -3412,9 +3432,9 @@
       <c r="T22" s="55"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
       <c r="Z22" s="55"/>
       <c r="AA22" s="55"/>
       <c r="AB22" s="55"/>
@@ -3475,13 +3495,17 @@
     </row>
     <row r="23" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="37">
+        <v>45212</v>
+      </c>
+      <c r="D23" s="37">
+        <v>45213</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
@@ -3501,8 +3525,8 @@
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
       <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="58"/>
       <c r="Z23" s="55"/>
       <c r="AA23" s="55"/>
       <c r="AB23" s="55"/>
@@ -3563,13 +3587,17 @@
     </row>
     <row r="24" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="C24" s="37">
+        <v>45214</v>
+      </c>
+      <c r="D24" s="37">
+        <v>45214</v>
+      </c>
       <c r="E24" s="14"/>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
@@ -3591,7 +3619,7 @@
       <c r="W24" s="55"/>
       <c r="X24" s="55"/>
       <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
+      <c r="Z24" s="25"/>
       <c r="AA24" s="55"/>
       <c r="AB24" s="55"/>
       <c r="AC24" s="55"/>
@@ -3651,13 +3679,17 @@
     </row>
     <row r="25" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="C25" s="37">
+        <v>45214</v>
+      </c>
+      <c r="D25" s="37">
+        <v>45214</v>
+      </c>
       <c r="E25" s="14"/>
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
@@ -3679,7 +3711,7 @@
       <c r="W25" s="55"/>
       <c r="X25" s="55"/>
       <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
+      <c r="Z25" s="57"/>
       <c r="AA25" s="55"/>
       <c r="AB25" s="55"/>
       <c r="AC25" s="55"/>
@@ -3739,13 +3771,17 @@
     </row>
     <row r="26" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="37">
+        <v>45215</v>
+      </c>
+      <c r="D26" s="37">
+        <v>45215</v>
+      </c>
       <c r="E26" s="14"/>
       <c r="F26" s="55"/>
       <c r="G26" s="55"/>
@@ -3768,7 +3804,7 @@
       <c r="X26" s="55"/>
       <c r="Y26" s="55"/>
       <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
+      <c r="AA26" s="59"/>
       <c r="AB26" s="55"/>
       <c r="AC26" s="55"/>
       <c r="AD26" s="55"/>
@@ -3827,13 +3863,17 @@
     </row>
     <row r="27" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="C27" s="37">
+        <v>45215</v>
+      </c>
+      <c r="D27" s="37">
+        <v>45215</v>
+      </c>
       <c r="E27" s="14"/>
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
@@ -3856,7 +3896,7 @@
       <c r="X27" s="55"/>
       <c r="Y27" s="55"/>
       <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
+      <c r="AA27" s="24"/>
       <c r="AB27" s="55"/>
       <c r="AC27" s="55"/>
       <c r="AD27" s="55"/>
@@ -4000,12 +4040,18 @@
       <c r="CD28" s="20"/>
     </row>
     <row r="29" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="43">
+        <v>45218</v>
+      </c>
+      <c r="D29" s="43">
+        <v>45218</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
@@ -4031,7 +4077,7 @@
       <c r="AA29" s="55"/>
       <c r="AB29" s="55"/>
       <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
+      <c r="AD29" s="19"/>
       <c r="AE29" s="55"/>
       <c r="AF29" s="55"/>
       <c r="AG29" s="55"/>
@@ -4087,11 +4133,17 @@
     </row>
     <row r="30" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+        <v>43</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="43">
+        <v>45218</v>
+      </c>
+      <c r="D30" s="43">
+        <v>45218</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="55"/>
       <c r="G30" s="55"/>
@@ -4117,7 +4169,7 @@
       <c r="AA30" s="55"/>
       <c r="AB30" s="55"/>
       <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
+      <c r="AD30" s="56"/>
       <c r="AE30" s="55"/>
       <c r="AF30" s="55"/>
       <c r="AG30" s="55"/>
@@ -4173,11 +4225,17 @@
     </row>
     <row r="31" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+        <v>44</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="43">
+        <v>45219</v>
+      </c>
+      <c r="D31" s="43">
+        <v>45220</v>
+      </c>
       <c r="E31" s="14"/>
       <c r="F31" s="55"/>
       <c r="G31" s="55"/>
@@ -4204,8 +4262,8 @@
       <c r="AB31" s="55"/>
       <c r="AC31" s="55"/>
       <c r="AD31" s="55"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="55"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
       <c r="AG31" s="55"/>
       <c r="AH31" s="55"/>
       <c r="AI31" s="55"/>
@@ -4259,11 +4317,17 @@
     </row>
     <row r="32" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+        <v>45</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="43">
+        <v>45221</v>
+      </c>
+      <c r="D32" s="43">
+        <v>45222</v>
+      </c>
       <c r="E32" s="14"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
@@ -4292,8 +4356,8 @@
       <c r="AD32" s="55"/>
       <c r="AE32" s="55"/>
       <c r="AF32" s="55"/>
-      <c r="AG32" s="55"/>
-      <c r="AH32" s="55"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
       <c r="AI32" s="55"/>
       <c r="AJ32" s="55"/>
       <c r="AK32" s="55"/>
@@ -4345,11 +4409,17 @@
     </row>
     <row r="33" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+        <v>47</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="43">
+        <v>45219</v>
+      </c>
+      <c r="D33" s="43">
+        <v>45219</v>
+      </c>
       <c r="E33" s="14"/>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
@@ -4376,7 +4446,7 @@
       <c r="AB33" s="55"/>
       <c r="AC33" s="55"/>
       <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
+      <c r="AE33" s="58"/>
       <c r="AF33" s="55"/>
       <c r="AG33" s="55"/>
       <c r="AH33" s="55"/>
@@ -4431,11 +4501,17 @@
     </row>
     <row r="34" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+        <v>48</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="43">
+        <v>45222</v>
+      </c>
+      <c r="D34" s="43">
+        <v>45223</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
@@ -4465,8 +4541,8 @@
       <c r="AE34" s="55"/>
       <c r="AF34" s="55"/>
       <c r="AG34" s="55"/>
-      <c r="AH34" s="55"/>
-      <c r="AI34" s="55"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -4517,11 +4593,17 @@
     </row>
     <row r="35" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+        <v>49</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="43">
+        <v>45220</v>
+      </c>
+      <c r="D35" s="43">
+        <v>45221</v>
+      </c>
       <c r="E35" s="14"/>
       <c r="F35" s="55"/>
       <c r="G35" s="55"/>
@@ -4549,8 +4631,8 @@
       <c r="AC35" s="55"/>
       <c r="AD35" s="55"/>
       <c r="AE35" s="55"/>
-      <c r="AF35" s="55"/>
-      <c r="AG35" s="55"/>
+      <c r="AF35" s="58"/>
+      <c r="AG35" s="58"/>
       <c r="AH35" s="55"/>
       <c r="AI35" s="55"/>
       <c r="AJ35" s="55"/>
@@ -4603,11 +4685,17 @@
     </row>
     <row r="36" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+        <v>46</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="43">
+        <v>45221</v>
+      </c>
+      <c r="D36" s="43">
+        <v>45223</v>
+      </c>
       <c r="E36" s="14"/>
       <c r="F36" s="55"/>
       <c r="G36" s="55"/>
@@ -4636,9 +4724,9 @@
       <c r="AD36" s="55"/>
       <c r="AE36" s="55"/>
       <c r="AF36" s="55"/>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -4691,9 +4779,15 @@
       <c r="A37" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="B37" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="43">
+        <v>45224</v>
+      </c>
+      <c r="D37" s="43">
+        <v>45225</v>
+      </c>
       <c r="E37" s="14"/>
       <c r="F37" s="55"/>
       <c r="G37" s="55"/>
@@ -4725,8 +4819,8 @@
       <c r="AG37" s="55"/>
       <c r="AH37" s="55"/>
       <c r="AI37" s="55"/>
-      <c r="AJ37" s="55"/>
-      <c r="AK37" s="55"/>
+      <c r="AJ37" s="25"/>
+      <c r="AK37" s="25"/>
       <c r="AL37" s="55"/>
       <c r="AM37" s="55"/>
       <c r="AN37" s="55"/>
@@ -4775,11 +4869,17 @@
     </row>
     <row r="38" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+        <v>51</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="43">
+        <v>45226</v>
+      </c>
+      <c r="D38" s="43">
+        <v>45228</v>
+      </c>
       <c r="E38" s="14"/>
       <c r="F38" s="55"/>
       <c r="G38" s="55"/>
@@ -4813,9 +4913,9 @@
       <c r="AI38" s="55"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="55"/>
-      <c r="AN38" s="55"/>
+      <c r="AL38" s="24"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
       <c r="AO38" s="55"/>
       <c r="AP38" s="55"/>
       <c r="AQ38" s="55"/>
@@ -4861,11 +4961,17 @@
     </row>
     <row r="39" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
+        <v>52</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="43">
+        <v>45226</v>
+      </c>
+      <c r="D39" s="43">
+        <v>45227</v>
+      </c>
       <c r="E39" s="14"/>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
@@ -4899,8 +5005,8 @@
       <c r="AI39" s="55"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="55"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="19"/>
       <c r="AN39" s="55"/>
       <c r="AO39" s="55"/>
       <c r="AP39" s="55"/>
@@ -4947,11 +5053,17 @@
     </row>
     <row r="40" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+        <v>53</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="43">
+        <v>45219</v>
+      </c>
+      <c r="D40" s="43">
+        <v>45221</v>
+      </c>
       <c r="E40" s="14"/>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
@@ -4978,9 +5090,9 @@
       <c r="AB40" s="55"/>
       <c r="AC40" s="55"/>
       <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="55"/>
-      <c r="AG40" s="55"/>
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57"/>
       <c r="AH40" s="55"/>
       <c r="AI40" s="55"/>
       <c r="AJ40" s="55"/>
@@ -5033,11 +5145,17 @@
     </row>
     <row r="41" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+        <v>54</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="43">
+        <v>45222</v>
+      </c>
+      <c r="D41" s="43">
+        <v>45223</v>
+      </c>
       <c r="E41" s="14"/>
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
@@ -5067,8 +5185,8 @@
       <c r="AE41" s="55"/>
       <c r="AF41" s="55"/>
       <c r="AG41" s="55"/>
-      <c r="AH41" s="55"/>
-      <c r="AI41" s="55"/>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="57"/>
       <c r="AJ41" s="55"/>
       <c r="AK41" s="55"/>
       <c r="AL41" s="55"/>
@@ -5119,11 +5237,17 @@
     </row>
     <row r="42" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
+        <v>55</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="43">
+        <v>45224</v>
+      </c>
+      <c r="D42" s="43">
+        <v>45226</v>
+      </c>
       <c r="E42" s="14"/>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
@@ -5155,9 +5279,9 @@
       <c r="AG42" s="55"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
+      <c r="AJ42" s="56"/>
+      <c r="AK42" s="56"/>
+      <c r="AL42" s="56"/>
       <c r="AM42" s="55"/>
       <c r="AN42" s="55"/>
       <c r="AO42" s="55"/>
@@ -5205,11 +5329,17 @@
     </row>
     <row r="43" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+        <v>63</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="43">
+        <v>45221</v>
+      </c>
+      <c r="D43" s="43">
+        <v>45223</v>
+      </c>
       <c r="E43" s="14"/>
       <c r="F43" s="55"/>
       <c r="G43" s="55"/>
@@ -5238,9 +5368,9 @@
       <c r="AD43" s="55"/>
       <c r="AE43" s="55"/>
       <c r="AF43" s="55"/>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="55"/>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="59"/>
+      <c r="AI43" s="59"/>
       <c r="AJ43" s="55"/>
       <c r="AK43" s="55"/>
       <c r="AL43" s="55"/>
@@ -5291,11 +5421,17 @@
     </row>
     <row r="44" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+        <v>56</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="43">
+        <v>45224</v>
+      </c>
+      <c r="D44" s="43">
+        <v>45225</v>
+      </c>
       <c r="E44" s="14"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
@@ -5327,8 +5463,8 @@
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="55"/>
+      <c r="AJ44" s="59"/>
+      <c r="AK44" s="59"/>
       <c r="AL44" s="55"/>
       <c r="AM44" s="55"/>
       <c r="AN44" s="55"/>
@@ -5377,11 +5513,17 @@
     </row>
     <row r="45" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+        <v>57</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="43">
+        <v>45226</v>
+      </c>
+      <c r="D45" s="43">
+        <v>45228</v>
+      </c>
       <c r="E45" s="14"/>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
@@ -5415,9 +5557,9 @@
       <c r="AI45" s="55"/>
       <c r="AJ45" s="55"/>
       <c r="AK45" s="55"/>
-      <c r="AL45" s="55"/>
-      <c r="AM45" s="55"/>
-      <c r="AN45" s="55"/>
+      <c r="AL45" s="60"/>
+      <c r="AM45" s="60"/>
+      <c r="AN45" s="60"/>
       <c r="AO45" s="55"/>
       <c r="AP45" s="55"/>
       <c r="AQ45" s="55"/>
@@ -5461,13 +5603,19 @@
       <c r="CC45" s="55"/>
       <c r="CD45" s="55"/>
     </row>
-    <row r="46" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:82" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+        <v>58</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="43">
+        <v>45229</v>
+      </c>
+      <c r="D46" s="43">
+        <v>45230</v>
+      </c>
       <c r="E46" s="14"/>
       <c r="F46" s="55"/>
       <c r="G46" s="55"/>
@@ -5504,8 +5652,8 @@
       <c r="AL46" s="55"/>
       <c r="AM46" s="55"/>
       <c r="AN46" s="55"/>
-      <c r="AO46" s="55"/>
-      <c r="AP46" s="55"/>
+      <c r="AO46" s="60"/>
+      <c r="AP46" s="60"/>
       <c r="AQ46" s="55"/>
       <c r="AR46" s="55"/>
       <c r="AS46" s="55"/>
@@ -5549,11 +5697,17 @@
     </row>
     <row r="47" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+        <v>59</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="43">
+        <v>45224</v>
+      </c>
+      <c r="D47" s="43">
+        <v>45227</v>
+      </c>
       <c r="E47" s="14"/>
       <c r="F47" s="55"/>
       <c r="G47" s="55"/>
@@ -5585,10 +5739,10 @@
       <c r="AG47" s="55"/>
       <c r="AH47" s="55"/>
       <c r="AI47" s="55"/>
-      <c r="AJ47" s="55"/>
-      <c r="AK47" s="55"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
+      <c r="AJ47" s="58"/>
+      <c r="AK47" s="58"/>
+      <c r="AL47" s="58"/>
+      <c r="AM47" s="58"/>
       <c r="AN47" s="55"/>
       <c r="AO47" s="55"/>
       <c r="AP47" s="55"/>
@@ -5635,183 +5789,201 @@
     </row>
     <row r="48" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+        <v>60</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="43">
+        <v>45229</v>
+      </c>
+      <c r="D48" s="43">
+        <v>45231</v>
+      </c>
       <c r="E48" s="14"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-      <c r="Q48" s="79"/>
-      <c r="R48" s="79"/>
-      <c r="S48" s="79"/>
-      <c r="T48" s="79"/>
-      <c r="U48" s="79"/>
-      <c r="V48" s="79"/>
-      <c r="W48" s="79"/>
-      <c r="X48" s="79"/>
-      <c r="Y48" s="79"/>
-      <c r="Z48" s="79"/>
-      <c r="AA48" s="79"/>
-      <c r="AB48" s="79"/>
-      <c r="AC48" s="79"/>
-      <c r="AD48" s="79"/>
-      <c r="AE48" s="79"/>
-      <c r="AF48" s="79"/>
-      <c r="AG48" s="79"/>
-      <c r="AH48" s="79"/>
-      <c r="AI48" s="79"/>
-      <c r="AJ48" s="79"/>
-      <c r="AK48" s="79"/>
-      <c r="AL48" s="79"/>
-      <c r="AM48" s="79"/>
-      <c r="AN48" s="79"/>
-      <c r="AO48" s="79"/>
-      <c r="AP48" s="79"/>
-      <c r="AQ48" s="79"/>
-      <c r="AR48" s="79"/>
-      <c r="AS48" s="79"/>
-      <c r="AT48" s="79"/>
-      <c r="AU48" s="79"/>
-      <c r="AV48" s="79"/>
-      <c r="AW48" s="79"/>
-      <c r="AX48" s="79"/>
-      <c r="AY48" s="79"/>
-      <c r="AZ48" s="79"/>
-      <c r="BA48" s="79"/>
-      <c r="BB48" s="79"/>
-      <c r="BC48" s="79"/>
-      <c r="BD48" s="79"/>
-      <c r="BE48" s="79"/>
-      <c r="BF48" s="79"/>
-      <c r="BG48" s="79"/>
-      <c r="BH48" s="79"/>
-      <c r="BI48" s="79"/>
-      <c r="BJ48" s="79"/>
-      <c r="BK48" s="79"/>
-      <c r="BL48" s="79"/>
-      <c r="BM48" s="79"/>
-      <c r="BN48" s="79"/>
-      <c r="BO48" s="79"/>
-      <c r="BP48" s="79"/>
-      <c r="BQ48" s="79"/>
-      <c r="BR48" s="79"/>
-      <c r="BS48" s="79"/>
-      <c r="BT48" s="79"/>
-      <c r="BU48" s="79"/>
-      <c r="BV48" s="79"/>
-      <c r="BW48" s="79"/>
-      <c r="BX48" s="79"/>
-      <c r="BY48" s="79"/>
-      <c r="BZ48" s="79"/>
-      <c r="CA48" s="79"/>
-      <c r="CB48" s="79"/>
-      <c r="CC48" s="79"/>
-      <c r="CD48" s="79"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="55"/>
+      <c r="AH48" s="55"/>
+      <c r="AI48" s="55"/>
+      <c r="AJ48" s="55"/>
+      <c r="AK48" s="55"/>
+      <c r="AL48" s="55"/>
+      <c r="AM48" s="55"/>
+      <c r="AN48" s="55"/>
+      <c r="AO48" s="24"/>
+      <c r="AP48" s="24"/>
+      <c r="AQ48" s="24"/>
+      <c r="AR48" s="55"/>
+      <c r="AS48" s="55"/>
+      <c r="AT48" s="55"/>
+      <c r="AU48" s="55"/>
+      <c r="AV48" s="55"/>
+      <c r="AW48" s="55"/>
+      <c r="AX48" s="55"/>
+      <c r="AY48" s="55"/>
+      <c r="AZ48" s="55"/>
+      <c r="BA48" s="55"/>
+      <c r="BB48" s="55"/>
+      <c r="BC48" s="55"/>
+      <c r="BD48" s="55"/>
+      <c r="BE48" s="55"/>
+      <c r="BF48" s="55"/>
+      <c r="BG48" s="55"/>
+      <c r="BH48" s="55"/>
+      <c r="BI48" s="55"/>
+      <c r="BJ48" s="55"/>
+      <c r="BK48" s="55"/>
+      <c r="BL48" s="55"/>
+      <c r="BM48" s="55"/>
+      <c r="BN48" s="55"/>
+      <c r="BO48" s="55"/>
+      <c r="BP48" s="55"/>
+      <c r="BQ48" s="55"/>
+      <c r="BR48" s="55"/>
+      <c r="BS48" s="55"/>
+      <c r="BT48" s="55"/>
+      <c r="BU48" s="55"/>
+      <c r="BV48" s="55"/>
+      <c r="BW48" s="55"/>
+      <c r="BX48" s="55"/>
+      <c r="BY48" s="55"/>
+      <c r="BZ48" s="55"/>
+      <c r="CA48" s="55"/>
+      <c r="CB48" s="55"/>
+      <c r="CC48" s="55"/>
+      <c r="CD48" s="55"/>
     </row>
     <row r="49" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="43">
+        <v>45228</v>
+      </c>
+      <c r="D49" s="43">
+        <v>45230</v>
+      </c>
       <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
-      <c r="AN49" s="14"/>
-      <c r="AO49" s="14"/>
-      <c r="AP49" s="14"/>
-      <c r="AQ49" s="14"/>
-      <c r="AR49" s="14"/>
-      <c r="AS49" s="14"/>
-      <c r="AT49" s="14"/>
-      <c r="AU49" s="14"/>
-      <c r="AV49" s="14"/>
-      <c r="AW49" s="14"/>
-      <c r="AX49" s="14"/>
-      <c r="AY49" s="14"/>
-      <c r="AZ49" s="14"/>
-      <c r="BA49" s="14"/>
-      <c r="BB49" s="14"/>
-      <c r="BC49" s="14"/>
-      <c r="BD49" s="14"/>
-      <c r="BE49" s="14"/>
-      <c r="BF49" s="14"/>
-      <c r="BG49" s="14"/>
-      <c r="BH49" s="14"/>
-      <c r="BI49" s="14"/>
-      <c r="BJ49" s="14"/>
-      <c r="BK49" s="14"/>
-      <c r="BL49" s="14"/>
-      <c r="BM49" s="14"/>
-      <c r="BN49" s="14"/>
-      <c r="BO49" s="14"/>
-      <c r="BP49" s="14"/>
-      <c r="BQ49" s="14"/>
-      <c r="BR49" s="14"/>
-      <c r="BS49" s="14"/>
-      <c r="BT49" s="14"/>
-      <c r="BU49" s="14"/>
-      <c r="BV49" s="14"/>
-      <c r="BW49" s="14"/>
-      <c r="BX49" s="14"/>
-      <c r="BY49" s="14"/>
-      <c r="BZ49" s="14"/>
-      <c r="CA49" s="14"/>
-      <c r="CB49" s="14"/>
-      <c r="CC49" s="14"/>
-      <c r="CD49" s="14"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
+      <c r="AA49" s="55"/>
+      <c r="AB49" s="55"/>
+      <c r="AC49" s="55"/>
+      <c r="AD49" s="55"/>
+      <c r="AE49" s="55"/>
+      <c r="AF49" s="55"/>
+      <c r="AG49" s="55"/>
+      <c r="AH49" s="55"/>
+      <c r="AI49" s="55"/>
+      <c r="AJ49" s="55"/>
+      <c r="AK49" s="55"/>
+      <c r="AL49" s="55"/>
+      <c r="AM49" s="55"/>
+      <c r="AN49" s="25"/>
+      <c r="AO49" s="25"/>
+      <c r="AP49" s="25"/>
+      <c r="AQ49" s="55"/>
+      <c r="AR49" s="55"/>
+      <c r="AS49" s="55"/>
+      <c r="AT49" s="55"/>
+      <c r="AU49" s="55"/>
+      <c r="AV49" s="55"/>
+      <c r="AW49" s="55"/>
+      <c r="AX49" s="55"/>
+      <c r="AY49" s="55"/>
+      <c r="AZ49" s="55"/>
+      <c r="BA49" s="55"/>
+      <c r="BB49" s="55"/>
+      <c r="BC49" s="55"/>
+      <c r="BD49" s="55"/>
+      <c r="BE49" s="55"/>
+      <c r="BF49" s="55"/>
+      <c r="BG49" s="55"/>
+      <c r="BH49" s="55"/>
+      <c r="BI49" s="55"/>
+      <c r="BJ49" s="55"/>
+      <c r="BK49" s="55"/>
+      <c r="BL49" s="55"/>
+      <c r="BM49" s="55"/>
+      <c r="BN49" s="55"/>
+      <c r="BO49" s="55"/>
+      <c r="BP49" s="55"/>
+      <c r="BQ49" s="55"/>
+      <c r="BR49" s="55"/>
+      <c r="BS49" s="55"/>
+      <c r="BT49" s="55"/>
+      <c r="BU49" s="55"/>
+      <c r="BV49" s="55"/>
+      <c r="BW49" s="55"/>
+      <c r="BX49" s="55"/>
+      <c r="BY49" s="55"/>
+      <c r="BZ49" s="55"/>
+      <c r="CA49" s="55"/>
+      <c r="CB49" s="55"/>
+      <c r="CC49" s="55"/>
+      <c r="CD49" s="55"/>
     </row>
     <row r="50" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
+      <c r="A50" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="43">
+        <v>45232</v>
+      </c>
+      <c r="D50" s="43">
+        <v>45234</v>
+      </c>
       <c r="E50" s="14"/>
       <c r="F50" s="55"/>
       <c r="G50" s="55"/>
@@ -5851,9 +6023,9 @@
       <c r="AO50" s="55"/>
       <c r="AP50" s="55"/>
       <c r="AQ50" s="55"/>
-      <c r="AR50" s="55"/>
-      <c r="AS50" s="55"/>
-      <c r="AT50" s="55"/>
+      <c r="AR50" s="24"/>
+      <c r="AS50" s="24"/>
+      <c r="AT50" s="24"/>
       <c r="AU50" s="55"/>
       <c r="AV50" s="55"/>
       <c r="AW50" s="55"/>
@@ -5892,98 +6064,104 @@
       <c r="CD50" s="55"/>
     </row>
     <row r="51" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
+      <c r="A51" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="55"/>
-      <c r="Y51" s="55"/>
-      <c r="Z51" s="55"/>
-      <c r="AA51" s="55"/>
-      <c r="AB51" s="55"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="55"/>
-      <c r="AF51" s="55"/>
-      <c r="AG51" s="55"/>
-      <c r="AH51" s="55"/>
-      <c r="AI51" s="55"/>
-      <c r="AJ51" s="55"/>
-      <c r="AK51" s="55"/>
-      <c r="AL51" s="55"/>
-      <c r="AM51" s="55"/>
-      <c r="AN51" s="55"/>
-      <c r="AO51" s="55"/>
-      <c r="AP51" s="55"/>
-      <c r="AQ51" s="55"/>
-      <c r="AR51" s="55"/>
-      <c r="AS51" s="55"/>
-      <c r="AT51" s="55"/>
-      <c r="AU51" s="55"/>
-      <c r="AV51" s="55"/>
-      <c r="AW51" s="55"/>
-      <c r="AX51" s="55"/>
-      <c r="AY51" s="55"/>
-      <c r="AZ51" s="55"/>
-      <c r="BA51" s="55"/>
-      <c r="BB51" s="55"/>
-      <c r="BC51" s="55"/>
-      <c r="BD51" s="55"/>
-      <c r="BE51" s="55"/>
-      <c r="BF51" s="55"/>
-      <c r="BG51" s="55"/>
-      <c r="BH51" s="55"/>
-      <c r="BI51" s="55"/>
-      <c r="BJ51" s="55"/>
-      <c r="BK51" s="55"/>
-      <c r="BL51" s="55"/>
-      <c r="BM51" s="55"/>
-      <c r="BN51" s="55"/>
-      <c r="BO51" s="55"/>
-      <c r="BP51" s="55"/>
-      <c r="BQ51" s="55"/>
-      <c r="BR51" s="55"/>
-      <c r="BS51" s="55"/>
-      <c r="BT51" s="55"/>
-      <c r="BU51" s="55"/>
-      <c r="BV51" s="55"/>
-      <c r="BW51" s="55"/>
-      <c r="BX51" s="55"/>
-      <c r="BY51" s="55"/>
-      <c r="BZ51" s="55"/>
-      <c r="CA51" s="55"/>
-      <c r="CB51" s="55"/>
-      <c r="CC51" s="55"/>
-      <c r="CD51" s="55"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="14"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="14"/>
+      <c r="AV51" s="14"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="14"/>
+      <c r="AY51" s="14"/>
+      <c r="AZ51" s="14"/>
+      <c r="BA51" s="14"/>
+      <c r="BB51" s="14"/>
+      <c r="BC51" s="14"/>
+      <c r="BD51" s="14"/>
+      <c r="BE51" s="14"/>
+      <c r="BF51" s="14"/>
+      <c r="BG51" s="14"/>
+      <c r="BH51" s="14"/>
+      <c r="BI51" s="14"/>
+      <c r="BJ51" s="14"/>
+      <c r="BK51" s="14"/>
+      <c r="BL51" s="14"/>
+      <c r="BM51" s="14"/>
+      <c r="BN51" s="14"/>
+      <c r="BO51" s="14"/>
+      <c r="BP51" s="14"/>
+      <c r="BQ51" s="14"/>
+      <c r="BR51" s="14"/>
+      <c r="BS51" s="14"/>
+      <c r="BT51" s="14"/>
+      <c r="BU51" s="14"/>
+      <c r="BV51" s="14"/>
+      <c r="BW51" s="14"/>
+      <c r="BX51" s="14"/>
+      <c r="BY51" s="14"/>
+      <c r="BZ51" s="14"/>
+      <c r="CA51" s="14"/>
+      <c r="CB51" s="14"/>
+      <c r="CC51" s="14"/>
+      <c r="CD51" s="14"/>
     </row>
     <row r="52" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
+        <v>64</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="49">
+        <v>45246</v>
+      </c>
+      <c r="D52" s="49">
+        <v>45246</v>
+      </c>
       <c r="E52" s="14"/>
       <c r="F52" s="55"/>
       <c r="G52" s="55"/>
@@ -6037,7 +6215,7 @@
       <c r="BC52" s="55"/>
       <c r="BD52" s="55"/>
       <c r="BE52" s="55"/>
-      <c r="BF52" s="55"/>
+      <c r="BF52" s="19"/>
       <c r="BG52" s="55"/>
       <c r="BH52" s="55"/>
       <c r="BI52" s="55"/>
@@ -6065,11 +6243,17 @@
     </row>
     <row r="53" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+        <v>65</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="49">
+        <v>45247</v>
+      </c>
+      <c r="D53" s="49">
+        <v>45250</v>
+      </c>
       <c r="E53" s="14"/>
       <c r="F53" s="55"/>
       <c r="G53" s="55"/>
@@ -6124,10 +6308,10 @@
       <c r="BD53" s="55"/>
       <c r="BE53" s="55"/>
       <c r="BF53" s="55"/>
-      <c r="BG53" s="55"/>
-      <c r="BH53" s="55"/>
-      <c r="BI53" s="55"/>
-      <c r="BJ53" s="55"/>
+      <c r="BG53" s="56"/>
+      <c r="BH53" s="56"/>
+      <c r="BI53" s="56"/>
+      <c r="BJ53" s="56"/>
       <c r="BK53" s="55"/>
       <c r="BL53" s="55"/>
       <c r="BM53" s="55"/>
@@ -6151,11 +6335,17 @@
     </row>
     <row r="54" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
+        <v>66</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="49">
+        <v>45251</v>
+      </c>
+      <c r="D54" s="49">
+        <v>45254</v>
+      </c>
       <c r="E54" s="14"/>
       <c r="F54" s="55"/>
       <c r="G54" s="55"/>
@@ -6214,10 +6404,10 @@
       <c r="BH54" s="55"/>
       <c r="BI54" s="55"/>
       <c r="BJ54" s="55"/>
-      <c r="BK54" s="55"/>
-      <c r="BL54" s="55"/>
-      <c r="BM54" s="55"/>
-      <c r="BN54" s="55"/>
+      <c r="BK54" s="24"/>
+      <c r="BL54" s="24"/>
+      <c r="BM54" s="24"/>
+      <c r="BN54" s="24"/>
       <c r="BO54" s="55"/>
       <c r="BP54" s="55"/>
       <c r="BQ54" s="55"/>
@@ -6237,11 +6427,17 @@
     </row>
     <row r="55" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
+        <v>67</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="49">
+        <v>45255</v>
+      </c>
+      <c r="D55" s="49">
+        <v>45256</v>
+      </c>
       <c r="E55" s="14"/>
       <c r="F55" s="55"/>
       <c r="G55" s="55"/>
@@ -6304,8 +6500,8 @@
       <c r="BL55" s="55"/>
       <c r="BM55" s="55"/>
       <c r="BN55" s="55"/>
-      <c r="BO55" s="55"/>
-      <c r="BP55" s="55"/>
+      <c r="BO55" s="57"/>
+      <c r="BP55" s="57"/>
       <c r="BQ55" s="55"/>
       <c r="BR55" s="55"/>
       <c r="BS55" s="55"/>
@@ -6323,11 +6519,17 @@
     </row>
     <row r="56" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
+        <v>68</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="49">
+        <v>45255</v>
+      </c>
+      <c r="D56" s="49">
+        <v>45256</v>
+      </c>
       <c r="E56" s="14"/>
       <c r="F56" s="55"/>
       <c r="G56" s="55"/>
@@ -6390,8 +6592,8 @@
       <c r="BL56" s="55"/>
       <c r="BM56" s="55"/>
       <c r="BN56" s="55"/>
-      <c r="BO56" s="55"/>
-      <c r="BP56" s="55"/>
+      <c r="BO56" s="19"/>
+      <c r="BP56" s="19"/>
       <c r="BQ56" s="55"/>
       <c r="BR56" s="55"/>
       <c r="BS56" s="55"/>
@@ -6409,11 +6611,17 @@
     </row>
     <row r="57" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+        <v>69</v>
+      </c>
+      <c r="B57" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="49">
+        <v>45255</v>
+      </c>
+      <c r="D57" s="49">
+        <v>45256</v>
+      </c>
       <c r="E57" s="14"/>
       <c r="F57" s="55"/>
       <c r="G57" s="55"/>
@@ -6476,8 +6684,8 @@
       <c r="BL57" s="55"/>
       <c r="BM57" s="55"/>
       <c r="BN57" s="55"/>
-      <c r="BO57" s="55"/>
-      <c r="BP57" s="55"/>
+      <c r="BO57" s="58"/>
+      <c r="BP57" s="58"/>
       <c r="BQ57" s="55"/>
       <c r="BR57" s="55"/>
       <c r="BS57" s="55"/>
@@ -6495,11 +6703,17 @@
     </row>
     <row r="58" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="B58" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="49">
+        <v>45257</v>
+      </c>
+      <c r="D58" s="49">
+        <v>45258</v>
+      </c>
       <c r="E58" s="14"/>
       <c r="F58" s="55"/>
       <c r="G58" s="55"/>
@@ -6564,8 +6778,8 @@
       <c r="BN58" s="55"/>
       <c r="BO58" s="55"/>
       <c r="BP58" s="55"/>
-      <c r="BQ58" s="55"/>
-      <c r="BR58" s="55"/>
+      <c r="BQ58" s="58"/>
+      <c r="BR58" s="58"/>
       <c r="BS58" s="55"/>
       <c r="BT58" s="55"/>
       <c r="BU58" s="55"/>
@@ -6581,11 +6795,17 @@
     </row>
     <row r="59" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+        <v>71</v>
+      </c>
+      <c r="B59" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="49">
+        <v>45255</v>
+      </c>
+      <c r="D59" s="49">
+        <v>45256</v>
+      </c>
       <c r="E59" s="14"/>
       <c r="F59" s="55"/>
       <c r="G59" s="55"/>
@@ -6648,8 +6868,8 @@
       <c r="BL59" s="55"/>
       <c r="BM59" s="55"/>
       <c r="BN59" s="55"/>
-      <c r="BO59" s="55"/>
-      <c r="BP59" s="55"/>
+      <c r="BO59" s="25"/>
+      <c r="BP59" s="25"/>
       <c r="BQ59" s="55"/>
       <c r="BR59" s="55"/>
       <c r="BS59" s="55"/>
@@ -6667,11 +6887,17 @@
     </row>
     <row r="60" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+        <v>72</v>
+      </c>
+      <c r="B60" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="49">
+        <v>45255</v>
+      </c>
+      <c r="D60" s="49">
+        <v>45255</v>
+      </c>
       <c r="E60" s="14"/>
       <c r="F60" s="55"/>
       <c r="G60" s="55"/>
@@ -6734,7 +6960,7 @@
       <c r="BL60" s="55"/>
       <c r="BM60" s="55"/>
       <c r="BN60" s="55"/>
-      <c r="BO60" s="55"/>
+      <c r="BO60" s="56"/>
       <c r="BP60" s="55"/>
       <c r="BQ60" s="55"/>
       <c r="BR60" s="55"/>
@@ -6753,11 +6979,17 @@
     </row>
     <row r="61" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+        <v>73</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="49">
+        <v>45255</v>
+      </c>
+      <c r="D61" s="49">
+        <v>45256</v>
+      </c>
       <c r="E61" s="14"/>
       <c r="F61" s="55"/>
       <c r="G61" s="55"/>
@@ -6820,8 +7052,8 @@
       <c r="BL61" s="55"/>
       <c r="BM61" s="55"/>
       <c r="BN61" s="55"/>
-      <c r="BO61" s="55"/>
-      <c r="BP61" s="55"/>
+      <c r="BO61" s="59"/>
+      <c r="BP61" s="59"/>
       <c r="BQ61" s="55"/>
       <c r="BR61" s="55"/>
       <c r="BS61" s="55"/>
@@ -6839,173 +7071,639 @@
     </row>
     <row r="62" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
+        <v>74</v>
+      </c>
+      <c r="B62" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="49">
+        <v>45257</v>
+      </c>
+      <c r="D62" s="49">
+        <v>45258</v>
+      </c>
       <c r="E62" s="14"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="79"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="79"/>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="79"/>
-      <c r="Q62" s="79"/>
-      <c r="R62" s="79"/>
-      <c r="S62" s="79"/>
-      <c r="T62" s="79"/>
-      <c r="U62" s="79"/>
-      <c r="V62" s="79"/>
-      <c r="W62" s="79"/>
-      <c r="X62" s="79"/>
-      <c r="Y62" s="79"/>
-      <c r="Z62" s="79"/>
-      <c r="AA62" s="79"/>
-      <c r="AB62" s="79"/>
-      <c r="AC62" s="79"/>
-      <c r="AD62" s="79"/>
-      <c r="AE62" s="79"/>
-      <c r="AF62" s="79"/>
-      <c r="AG62" s="79"/>
-      <c r="AH62" s="79"/>
-      <c r="AI62" s="79"/>
-      <c r="AJ62" s="79"/>
-      <c r="AK62" s="79"/>
-      <c r="AL62" s="79"/>
-      <c r="AM62" s="79"/>
-      <c r="AN62" s="79"/>
-      <c r="AO62" s="79"/>
-      <c r="AP62" s="79"/>
-      <c r="AQ62" s="79"/>
-      <c r="AR62" s="79"/>
-      <c r="AS62" s="79"/>
-      <c r="AT62" s="79"/>
-      <c r="AU62" s="79"/>
-      <c r="AV62" s="79"/>
-      <c r="AW62" s="79"/>
-      <c r="AX62" s="79"/>
-      <c r="AY62" s="79"/>
-      <c r="AZ62" s="79"/>
-      <c r="BA62" s="79"/>
-      <c r="BB62" s="79"/>
-      <c r="BC62" s="79"/>
-      <c r="BD62" s="79"/>
-      <c r="BE62" s="79"/>
-      <c r="BF62" s="79"/>
-      <c r="BG62" s="79"/>
-      <c r="BH62" s="79"/>
-      <c r="BI62" s="79"/>
-      <c r="BJ62" s="79"/>
-      <c r="BK62" s="79"/>
-      <c r="BL62" s="79"/>
-      <c r="BM62" s="79"/>
-      <c r="BN62" s="79"/>
-      <c r="BO62" s="79"/>
-      <c r="BP62" s="79"/>
-      <c r="BQ62" s="79"/>
-      <c r="BR62" s="79"/>
-      <c r="BS62" s="79"/>
-      <c r="BT62" s="79"/>
-      <c r="BU62" s="79"/>
-      <c r="BV62" s="79"/>
-      <c r="BW62" s="79"/>
-      <c r="BX62" s="79"/>
-      <c r="BY62" s="79"/>
-      <c r="BZ62" s="79"/>
-      <c r="CA62" s="79"/>
-      <c r="CB62" s="79"/>
-      <c r="CC62" s="79"/>
-      <c r="CD62" s="79"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="55"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="55"/>
+      <c r="AE62" s="55"/>
+      <c r="AF62" s="55"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="55"/>
+      <c r="AI62" s="55"/>
+      <c r="AJ62" s="55"/>
+      <c r="AK62" s="55"/>
+      <c r="AL62" s="55"/>
+      <c r="AM62" s="55"/>
+      <c r="AN62" s="55"/>
+      <c r="AO62" s="55"/>
+      <c r="AP62" s="55"/>
+      <c r="AQ62" s="55"/>
+      <c r="AR62" s="55"/>
+      <c r="AS62" s="55"/>
+      <c r="AT62" s="55"/>
+      <c r="AU62" s="55"/>
+      <c r="AV62" s="55"/>
+      <c r="AW62" s="55"/>
+      <c r="AX62" s="55"/>
+      <c r="AY62" s="55"/>
+      <c r="AZ62" s="55"/>
+      <c r="BA62" s="55"/>
+      <c r="BB62" s="55"/>
+      <c r="BC62" s="55"/>
+      <c r="BD62" s="55"/>
+      <c r="BE62" s="55"/>
+      <c r="BF62" s="55"/>
+      <c r="BG62" s="55"/>
+      <c r="BH62" s="55"/>
+      <c r="BI62" s="55"/>
+      <c r="BJ62" s="55"/>
+      <c r="BK62" s="55"/>
+      <c r="BL62" s="55"/>
+      <c r="BM62" s="55"/>
+      <c r="BN62" s="55"/>
+      <c r="BO62" s="55"/>
+      <c r="BP62" s="55"/>
+      <c r="BQ62" s="25"/>
+      <c r="BR62" s="25"/>
+      <c r="BS62" s="55"/>
+      <c r="BT62" s="55"/>
+      <c r="BU62" s="55"/>
+      <c r="BV62" s="55"/>
+      <c r="BW62" s="55"/>
+      <c r="BX62" s="55"/>
+      <c r="BY62" s="55"/>
+      <c r="BZ62" s="55"/>
+      <c r="CA62" s="55"/>
+      <c r="CB62" s="55"/>
+      <c r="CC62" s="55"/>
+      <c r="CD62" s="55"/>
     </row>
     <row r="63" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="50"/>
-      <c r="B63" s="51"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="15"/>
+      <c r="A63" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="49">
+        <v>45257</v>
+      </c>
+      <c r="D63" s="49">
+        <v>45258</v>
+      </c>
       <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
-      <c r="Z63" s="14"/>
-      <c r="AA63" s="14"/>
-      <c r="AB63" s="14"/>
-      <c r="AC63" s="14"/>
-      <c r="AD63" s="14"/>
-      <c r="AE63" s="14"/>
-      <c r="AF63" s="14"/>
-      <c r="AG63" s="14"/>
-      <c r="AH63" s="14"/>
-      <c r="AI63" s="14"/>
-      <c r="AJ63" s="14"/>
-      <c r="AK63" s="14"/>
-      <c r="AL63" s="14"/>
-      <c r="AM63" s="14"/>
-      <c r="AN63" s="14"/>
-      <c r="AO63" s="14"/>
-      <c r="AP63" s="14"/>
-      <c r="AQ63" s="14"/>
-      <c r="AR63" s="14"/>
-      <c r="AS63" s="14"/>
-      <c r="AT63" s="14"/>
-      <c r="AU63" s="14"/>
-      <c r="AV63" s="14"/>
-      <c r="AW63" s="14"/>
-      <c r="AX63" s="14"/>
-      <c r="AY63" s="14"/>
-      <c r="AZ63" s="14"/>
-      <c r="BA63" s="14"/>
-      <c r="BB63" s="14"/>
-      <c r="BC63" s="14"/>
-      <c r="BD63" s="14"/>
-      <c r="BE63" s="14"/>
-      <c r="BF63" s="14"/>
-      <c r="BG63" s="14"/>
-      <c r="BH63" s="14"/>
-      <c r="BI63" s="14"/>
-      <c r="BJ63" s="14"/>
-      <c r="BK63" s="14"/>
-      <c r="BL63" s="14"/>
-      <c r="BM63" s="14"/>
-      <c r="BN63" s="14"/>
-      <c r="BO63" s="14"/>
-      <c r="BP63" s="14"/>
-      <c r="BQ63" s="14"/>
-      <c r="BR63" s="14"/>
-      <c r="BS63" s="14"/>
-      <c r="BT63" s="14"/>
-      <c r="BU63" s="14"/>
-      <c r="BV63" s="14"/>
-      <c r="BW63" s="14"/>
-      <c r="BX63" s="14"/>
-      <c r="BY63" s="14"/>
-      <c r="BZ63" s="14"/>
-      <c r="CA63" s="14"/>
-      <c r="CB63" s="14"/>
-      <c r="CC63" s="14"/>
-      <c r="CD63" s="14"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="55"/>
+      <c r="AC63" s="55"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="55"/>
+      <c r="AF63" s="55"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="55"/>
+      <c r="AJ63" s="55"/>
+      <c r="AK63" s="55"/>
+      <c r="AL63" s="55"/>
+      <c r="AM63" s="55"/>
+      <c r="AN63" s="55"/>
+      <c r="AO63" s="55"/>
+      <c r="AP63" s="55"/>
+      <c r="AQ63" s="55"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="55"/>
+      <c r="AV63" s="55"/>
+      <c r="AW63" s="55"/>
+      <c r="AX63" s="55"/>
+      <c r="AY63" s="55"/>
+      <c r="AZ63" s="55"/>
+      <c r="BA63" s="55"/>
+      <c r="BB63" s="55"/>
+      <c r="BC63" s="55"/>
+      <c r="BD63" s="55"/>
+      <c r="BE63" s="55"/>
+      <c r="BF63" s="55"/>
+      <c r="BG63" s="55"/>
+      <c r="BH63" s="55"/>
+      <c r="BI63" s="55"/>
+      <c r="BJ63" s="55"/>
+      <c r="BK63" s="55"/>
+      <c r="BL63" s="55"/>
+      <c r="BM63" s="55"/>
+      <c r="BN63" s="55"/>
+      <c r="BO63" s="55"/>
+      <c r="BP63" s="55"/>
+      <c r="BQ63" s="57"/>
+      <c r="BR63" s="57"/>
+      <c r="BS63" s="55"/>
+      <c r="BT63" s="55"/>
+      <c r="BU63" s="55"/>
+      <c r="BV63" s="55"/>
+      <c r="BW63" s="55"/>
+      <c r="BX63" s="55"/>
+      <c r="BY63" s="55"/>
+      <c r="BZ63" s="55"/>
+      <c r="CA63" s="55"/>
+      <c r="CB63" s="55"/>
+      <c r="CC63" s="55"/>
+      <c r="CD63" s="55"/>
+    </row>
+    <row r="64" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="49">
+        <v>45255</v>
+      </c>
+      <c r="D64" s="49">
+        <v>45256</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="55"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="55"/>
+      <c r="Y64" s="55"/>
+      <c r="Z64" s="55"/>
+      <c r="AA64" s="55"/>
+      <c r="AB64" s="55"/>
+      <c r="AC64" s="55"/>
+      <c r="AD64" s="55"/>
+      <c r="AE64" s="55"/>
+      <c r="AF64" s="55"/>
+      <c r="AG64" s="55"/>
+      <c r="AH64" s="55"/>
+      <c r="AI64" s="55"/>
+      <c r="AJ64" s="55"/>
+      <c r="AK64" s="55"/>
+      <c r="AL64" s="55"/>
+      <c r="AM64" s="55"/>
+      <c r="AN64" s="55"/>
+      <c r="AO64" s="55"/>
+      <c r="AP64" s="55"/>
+      <c r="AQ64" s="55"/>
+      <c r="AR64" s="55"/>
+      <c r="AS64" s="55"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55"/>
+      <c r="AV64" s="55"/>
+      <c r="AW64" s="55"/>
+      <c r="AX64" s="55"/>
+      <c r="AY64" s="55"/>
+      <c r="AZ64" s="55"/>
+      <c r="BA64" s="55"/>
+      <c r="BB64" s="55"/>
+      <c r="BC64" s="55"/>
+      <c r="BD64" s="55"/>
+      <c r="BE64" s="55"/>
+      <c r="BF64" s="55"/>
+      <c r="BG64" s="55"/>
+      <c r="BH64" s="55"/>
+      <c r="BI64" s="55"/>
+      <c r="BJ64" s="55"/>
+      <c r="BK64" s="55"/>
+      <c r="BL64" s="55"/>
+      <c r="BM64" s="55"/>
+      <c r="BN64" s="55"/>
+      <c r="BO64" s="24"/>
+      <c r="BP64" s="24"/>
+      <c r="BQ64" s="55"/>
+      <c r="BR64" s="55"/>
+      <c r="BS64" s="55"/>
+      <c r="BT64" s="55"/>
+      <c r="BU64" s="55"/>
+      <c r="BV64" s="55"/>
+      <c r="BW64" s="55"/>
+      <c r="BX64" s="55"/>
+      <c r="BY64" s="55"/>
+      <c r="BZ64" s="55"/>
+      <c r="CA64" s="55"/>
+      <c r="CB64" s="55"/>
+      <c r="CC64" s="55"/>
+      <c r="CD64" s="55"/>
+    </row>
+    <row r="65" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="49">
+        <v>45255</v>
+      </c>
+      <c r="D65" s="49">
+        <v>45256</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="55"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="55"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="55"/>
+      <c r="W65" s="55"/>
+      <c r="X65" s="55"/>
+      <c r="Y65" s="55"/>
+      <c r="Z65" s="55"/>
+      <c r="AA65" s="55"/>
+      <c r="AB65" s="55"/>
+      <c r="AC65" s="55"/>
+      <c r="AD65" s="55"/>
+      <c r="AE65" s="55"/>
+      <c r="AF65" s="55"/>
+      <c r="AG65" s="55"/>
+      <c r="AH65" s="55"/>
+      <c r="AI65" s="55"/>
+      <c r="AJ65" s="55"/>
+      <c r="AK65" s="55"/>
+      <c r="AL65" s="55"/>
+      <c r="AM65" s="55"/>
+      <c r="AN65" s="55"/>
+      <c r="AO65" s="55"/>
+      <c r="AP65" s="55"/>
+      <c r="AQ65" s="55"/>
+      <c r="AR65" s="55"/>
+      <c r="AS65" s="55"/>
+      <c r="AT65" s="55"/>
+      <c r="AU65" s="55"/>
+      <c r="AV65" s="55"/>
+      <c r="AW65" s="55"/>
+      <c r="AX65" s="55"/>
+      <c r="AY65" s="55"/>
+      <c r="AZ65" s="55"/>
+      <c r="BA65" s="55"/>
+      <c r="BB65" s="55"/>
+      <c r="BC65" s="55"/>
+      <c r="BD65" s="55"/>
+      <c r="BE65" s="55"/>
+      <c r="BF65" s="55"/>
+      <c r="BG65" s="55"/>
+      <c r="BH65" s="55"/>
+      <c r="BI65" s="55"/>
+      <c r="BJ65" s="55"/>
+      <c r="BK65" s="55"/>
+      <c r="BL65" s="55"/>
+      <c r="BM65" s="55"/>
+      <c r="BN65" s="55"/>
+      <c r="BO65" s="60"/>
+      <c r="BP65" s="60"/>
+      <c r="BQ65" s="55"/>
+      <c r="BR65" s="55"/>
+      <c r="BS65" s="55"/>
+      <c r="BT65" s="55"/>
+      <c r="BU65" s="55"/>
+      <c r="BV65" s="55"/>
+      <c r="BW65" s="55"/>
+      <c r="BX65" s="55"/>
+      <c r="BY65" s="55"/>
+      <c r="BZ65" s="55"/>
+      <c r="CA65" s="55"/>
+      <c r="CB65" s="55"/>
+      <c r="CC65" s="55"/>
+      <c r="CD65" s="55"/>
+    </row>
+    <row r="66" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="49">
+        <v>45257</v>
+      </c>
+      <c r="D66" s="49">
+        <v>45258</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="55"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="55"/>
+      <c r="T66" s="55"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="55"/>
+      <c r="W66" s="55"/>
+      <c r="X66" s="55"/>
+      <c r="Y66" s="55"/>
+      <c r="Z66" s="55"/>
+      <c r="AA66" s="55"/>
+      <c r="AB66" s="55"/>
+      <c r="AC66" s="55"/>
+      <c r="AD66" s="55"/>
+      <c r="AE66" s="55"/>
+      <c r="AF66" s="55"/>
+      <c r="AG66" s="55"/>
+      <c r="AH66" s="55"/>
+      <c r="AI66" s="55"/>
+      <c r="AJ66" s="55"/>
+      <c r="AK66" s="55"/>
+      <c r="AL66" s="55"/>
+      <c r="AM66" s="55"/>
+      <c r="AN66" s="55"/>
+      <c r="AO66" s="55"/>
+      <c r="AP66" s="55"/>
+      <c r="AQ66" s="55"/>
+      <c r="AR66" s="55"/>
+      <c r="AS66" s="55"/>
+      <c r="AT66" s="55"/>
+      <c r="AU66" s="55"/>
+      <c r="AV66" s="55"/>
+      <c r="AW66" s="55"/>
+      <c r="AX66" s="55"/>
+      <c r="AY66" s="55"/>
+      <c r="AZ66" s="55"/>
+      <c r="BA66" s="55"/>
+      <c r="BB66" s="55"/>
+      <c r="BC66" s="55"/>
+      <c r="BD66" s="55"/>
+      <c r="BE66" s="55"/>
+      <c r="BF66" s="55"/>
+      <c r="BG66" s="55"/>
+      <c r="BH66" s="55"/>
+      <c r="BI66" s="55"/>
+      <c r="BJ66" s="55"/>
+      <c r="BK66" s="55"/>
+      <c r="BL66" s="55"/>
+      <c r="BM66" s="55"/>
+      <c r="BN66" s="55"/>
+      <c r="BO66" s="55"/>
+      <c r="BP66" s="55"/>
+      <c r="BQ66" s="60"/>
+      <c r="BR66" s="60"/>
+      <c r="BS66" s="55"/>
+      <c r="BT66" s="55"/>
+      <c r="BU66" s="55"/>
+      <c r="BV66" s="55"/>
+      <c r="BW66" s="55"/>
+      <c r="BX66" s="55"/>
+      <c r="BY66" s="55"/>
+      <c r="BZ66" s="55"/>
+      <c r="CA66" s="55"/>
+      <c r="CB66" s="55"/>
+      <c r="CC66" s="55"/>
+      <c r="CD66" s="55"/>
+    </row>
+    <row r="67" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="49">
+        <v>45257</v>
+      </c>
+      <c r="D67" s="49">
+        <v>45259</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="55"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="55"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="55"/>
+      <c r="W67" s="55"/>
+      <c r="X67" s="55"/>
+      <c r="Y67" s="55"/>
+      <c r="Z67" s="55"/>
+      <c r="AA67" s="55"/>
+      <c r="AB67" s="55"/>
+      <c r="AC67" s="55"/>
+      <c r="AD67" s="55"/>
+      <c r="AE67" s="55"/>
+      <c r="AF67" s="55"/>
+      <c r="AG67" s="55"/>
+      <c r="AH67" s="55"/>
+      <c r="AI67" s="55"/>
+      <c r="AJ67" s="55"/>
+      <c r="AK67" s="55"/>
+      <c r="AL67" s="55"/>
+      <c r="AM67" s="55"/>
+      <c r="AN67" s="55"/>
+      <c r="AO67" s="55"/>
+      <c r="AP67" s="55"/>
+      <c r="AQ67" s="55"/>
+      <c r="AR67" s="55"/>
+      <c r="AS67" s="55"/>
+      <c r="AT67" s="55"/>
+      <c r="AU67" s="55"/>
+      <c r="AV67" s="55"/>
+      <c r="AW67" s="55"/>
+      <c r="AX67" s="55"/>
+      <c r="AY67" s="55"/>
+      <c r="AZ67" s="55"/>
+      <c r="BA67" s="55"/>
+      <c r="BB67" s="55"/>
+      <c r="BC67" s="55"/>
+      <c r="BD67" s="55"/>
+      <c r="BE67" s="55"/>
+      <c r="BF67" s="55"/>
+      <c r="BG67" s="55"/>
+      <c r="BH67" s="55"/>
+      <c r="BI67" s="55"/>
+      <c r="BJ67" s="55"/>
+      <c r="BK67" s="55"/>
+      <c r="BL67" s="55"/>
+      <c r="BM67" s="55"/>
+      <c r="BN67" s="55"/>
+      <c r="BO67" s="55"/>
+      <c r="BP67" s="55"/>
+      <c r="BQ67" s="59"/>
+      <c r="BR67" s="59"/>
+      <c r="BS67" s="59"/>
+      <c r="BT67" s="55"/>
+      <c r="BU67" s="55"/>
+      <c r="BV67" s="55"/>
+      <c r="BW67" s="55"/>
+      <c r="BX67" s="55"/>
+      <c r="BY67" s="55"/>
+      <c r="BZ67" s="55"/>
+      <c r="CA67" s="55"/>
+      <c r="CB67" s="55"/>
+      <c r="CC67" s="55"/>
+      <c r="CD67" s="55"/>
+    </row>
+    <row r="68" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="50"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+      <c r="X68" s="14"/>
+      <c r="Y68" s="14"/>
+      <c r="Z68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="14"/>
+      <c r="AD68" s="14"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
+      <c r="AH68" s="14"/>
+      <c r="AI68" s="14"/>
+      <c r="AJ68" s="14"/>
+      <c r="AK68" s="14"/>
+      <c r="AL68" s="14"/>
+      <c r="AM68" s="14"/>
+      <c r="AN68" s="14"/>
+      <c r="AO68" s="14"/>
+      <c r="AP68" s="14"/>
+      <c r="AQ68" s="14"/>
+      <c r="AR68" s="14"/>
+      <c r="AS68" s="14"/>
+      <c r="AT68" s="14"/>
+      <c r="AU68" s="14"/>
+      <c r="AV68" s="14"/>
+      <c r="AW68" s="14"/>
+      <c r="AX68" s="14"/>
+      <c r="AY68" s="14"/>
+      <c r="AZ68" s="14"/>
+      <c r="BA68" s="14"/>
+      <c r="BB68" s="14"/>
+      <c r="BC68" s="14"/>
+      <c r="BD68" s="14"/>
+      <c r="BE68" s="14"/>
+      <c r="BF68" s="14"/>
+      <c r="BG68" s="14"/>
+      <c r="BH68" s="14"/>
+      <c r="BI68" s="14"/>
+      <c r="BJ68" s="14"/>
+      <c r="BK68" s="14"/>
+      <c r="BL68" s="14"/>
+      <c r="BM68" s="14"/>
+      <c r="BN68" s="14"/>
+      <c r="BO68" s="14"/>
+      <c r="BP68" s="14"/>
+      <c r="BQ68" s="14"/>
+      <c r="BR68" s="14"/>
+      <c r="BS68" s="14"/>
+      <c r="BT68" s="14"/>
+      <c r="BU68" s="14"/>
+      <c r="BV68" s="14"/>
+      <c r="BW68" s="14"/>
+      <c r="BX68" s="14"/>
+      <c r="BY68" s="14"/>
+      <c r="BZ68" s="14"/>
+      <c r="CA68" s="14"/>
+      <c r="CB68" s="14"/>
+      <c r="CC68" s="14"/>
+      <c r="CD68" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/gantt-diagram.xlsx
+++ b/gantt-diagram.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
-  <si>
-    <t>Mindenki</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>Projekt kezdete:</t>
   </si>
@@ -131,9 +128,6 @@
     <t>8.2.2 Rendszerarchitektúra tervezése</t>
   </si>
   <si>
-    <t>Kuruczi Nándor</t>
-  </si>
-  <si>
     <t>8.2.3 Adatbázis tervek kidolgozása</t>
   </si>
   <si>
@@ -155,67 +149,7 @@
     <t>8.3.1 Alap projekt fájlok létrehozása</t>
   </si>
   <si>
-    <t>8.3.2 Adatbázis táblák megvalósítása, ki exportálása</t>
-  </si>
-  <si>
-    <t>8.3.3 Express szerver beüzemelése</t>
-  </si>
-  <si>
-    <t>8.3.4 Login oldal létrehozása (CR)</t>
-  </si>
-  <si>
-    <t>8.3.8 Kosár oldal létrehozása (kosár cookie)</t>
-  </si>
-  <si>
-    <t>8.3.5 Login oldal létrehozása</t>
-  </si>
-  <si>
-    <t>8.3.6 Áruház oldal létrehozása ( R)</t>
-  </si>
-  <si>
-    <t>8.3.7 Áruház oldal létrehozása</t>
-  </si>
-  <si>
-    <t>8.3.9 Megrendelés oldal létrehozása</t>
-  </si>
-  <si>
-    <t>8.3.10 Megrendelés elküldése (kosár cookie kezelése, C)</t>
-  </si>
-  <si>
-    <t>8.3.11 Megrendelések megtekintése ( R)</t>
-  </si>
-  <si>
-    <t>8.3.12 Admin oldal létrehozása</t>
-  </si>
-  <si>
-    <t>8.3.13 Admin oldal felhasználók megtekintése ( R)</t>
-  </si>
-  <si>
-    <t>8.3.14 Admin oldal felhasználók kezelése (CRUD)</t>
-  </si>
-  <si>
-    <t>8.3.16 Kommentek megvalósítása</t>
-  </si>
-  <si>
     <t>8.3.17 Kommentek megvalósítása (CRUD)</t>
-  </si>
-  <si>
-    <t>8.3.18 Kommentek kezelése (UD)</t>
-  </si>
-  <si>
-    <t>8.3.19 Termékek kezelése oldal létrehozása</t>
-  </si>
-  <si>
-    <t>8.3.20 Új termék hozzáadása ( C)</t>
-  </si>
-  <si>
-    <t>8.3.21 Termék módosítása (U)</t>
-  </si>
-  <si>
-    <t>8.3.22 Termék törlése (D)</t>
-  </si>
-  <si>
-    <t>8.3.15 Termék információ oldal létrehozása ( R)</t>
   </si>
   <si>
     <t>8.4.1 Meglévő funkciók összevetése a funkciók listájával</t>
@@ -264,6 +198,66 @@
   </si>
   <si>
     <t>8.4.16 Adatbázis tesztelése</t>
+  </si>
+  <si>
+    <t>8.3.2 Modellek megvalósításának jóváhagyása</t>
+  </si>
+  <si>
+    <t>8.3.3 Navigációs sáv</t>
+  </si>
+  <si>
+    <t>8.3.4  Login/Regisztráció oldal létrehozása</t>
+  </si>
+  <si>
+    <t>8.3.5 Login/Regisztráció oldal backend (CR)</t>
+  </si>
+  <si>
+    <t>8.3.6 Főoldal létrehozása</t>
+  </si>
+  <si>
+    <t>8.3.7 Főoldal: Termékek listázása ( R)</t>
+  </si>
+  <si>
+    <t>8.3.8 Főoldal: Tag keresés ( R)</t>
+  </si>
+  <si>
+    <t>8.3.9 Főoldal: Keresősáv megvalósítása ®</t>
+  </si>
+  <si>
+    <t>8.3.10 Fiók: Felhasználói adatok módosítása (U)</t>
+  </si>
+  <si>
+    <t>8.3.11 Fiók: Megrendelések listázása ( R)</t>
+  </si>
+  <si>
+    <t>8.3.12 Kosár oldal létrehozása (cookie)</t>
+  </si>
+  <si>
+    <t>8.3.13 Kosár: Tartalom módosítása (CD)</t>
+  </si>
+  <si>
+    <t>8.3.14 Kosár: Rendelés leadása</t>
+  </si>
+  <si>
+    <t>8.3.15 Termék oldal létrehozása + Kommentek ( R)</t>
+  </si>
+  <si>
+    <t>8.3.16 Termék: Kosárba helyezés (cookie, C)</t>
+  </si>
+  <si>
+    <t>8.3.18 Termék: Kommentek kezelése (Admin) (UD)</t>
+  </si>
+  <si>
+    <t>8.3.19 Admin: Listázások (Felhasználó/Termék/Tag) ( R)</t>
+  </si>
+  <si>
+    <t>8.3.20 Admin: Táblák backend (CRUD)</t>
+  </si>
+  <si>
+    <t>8.3.21 Deploy</t>
+  </si>
+  <si>
+    <t>8.3.22 Firestore adatbázis feltöltés</t>
   </si>
 </sst>
 </file>
@@ -402,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,12 +514,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +693,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -860,7 +848,6 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,6 +875,9 @@
     <xf numFmtId="14" fontId="1" fillId="10" borderId="2" xfId="12" applyNumberFormat="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="1" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -896,9 +886,6 @@
     </xf>
     <xf numFmtId="168" fontId="1" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1312,10 +1299,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CD68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:CD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1316,7 @@
   <sheetData>
     <row r="1" spans="1:82" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1339,7 +1326,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="21"/>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1348,7 +1335,7 @@
       <c r="N1" s="24"/>
       <c r="O1" s="21"/>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1357,7 +1344,7 @@
       <c r="U1" s="25"/>
       <c r="V1" s="21"/>
       <c r="W1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -1365,7 +1352,7 @@
       <c r="AB1" s="61"/>
       <c r="AD1" s="56"/>
       <c r="AF1" s="53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
@@ -1373,7 +1360,7 @@
       <c r="AJ1" s="1"/>
       <c r="AL1" s="19"/>
       <c r="AN1" s="54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
@@ -1381,7 +1368,7 @@
       <c r="AT1" s="57"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
@@ -1390,7 +1377,7 @@
       <c r="BA1" s="58"/>
       <c r="BB1" s="1"/>
       <c r="BC1" s="54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
@@ -1402,7 +1389,7 @@
       <c r="BK1" s="59"/>
       <c r="BL1" s="1"/>
       <c r="BM1" s="54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
@@ -1412,26 +1399,24 @@
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
       <c r="BU1" s="60"/>
-      <c r="BW1" s="54" t="s">
-        <v>0</v>
-      </c>
+      <c r="BW1" s="1"/>
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
-      <c r="CA1" s="62"/>
+      <c r="CA1" s="1"/>
       <c r="CB1" s="1"/>
       <c r="CC1" s="1"/>
       <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="75"/>
+      <c r="C2" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="71"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="1"/>
@@ -1514,10 +1499,10 @@
     <row r="3" spans="1:82" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="75">
+      <c r="C3" s="71">
         <v>45197</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="10"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1602,7 +1587,7 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="76"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="72">
         <v>45194</v>
       </c>
@@ -1705,18 +1690,18 @@
     </row>
     <row r="5" spans="1:82" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="5">
         <v>25</v>
       </c>
@@ -2035,7 +2020,7 @@
     </row>
     <row r="7" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
@@ -2121,10 +2106,10 @@
     </row>
     <row r="8" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="31">
         <v>45199</v>
@@ -2138,7 +2123,7 @@
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
-      <c r="K8" s="64"/>
+      <c r="K8" s="63"/>
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
       <c r="N8" s="55"/>
@@ -2213,10 +2198,10 @@
     </row>
     <row r="9" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="31">
         <v>45200</v>
@@ -2231,7 +2216,7 @@
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
-      <c r="L9" s="69"/>
+      <c r="L9" s="68"/>
       <c r="M9" s="55"/>
       <c r="N9" s="55"/>
       <c r="O9" s="55"/>
@@ -2305,10 +2290,10 @@
     </row>
     <row r="10" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="31">
         <v>45201</v>
@@ -2324,7 +2309,7 @@
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
-      <c r="M10" s="70"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
       <c r="P10" s="55"/>
@@ -2397,10 +2382,10 @@
     </row>
     <row r="11" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="31">
         <v>45200</v>
@@ -2415,7 +2400,7 @@
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
-      <c r="L11" s="65"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
       <c r="O11" s="55"/>
@@ -2489,10 +2474,10 @@
     </row>
     <row r="12" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="31">
         <v>45199</v>
@@ -2506,7 +2491,7 @@
       <c r="H12" s="55"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
-      <c r="K12" s="66"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="55"/>
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
@@ -2581,10 +2566,10 @@
     </row>
     <row r="13" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="31">
         <v>45200</v>
@@ -2599,7 +2584,7 @@
       <c r="I13" s="55"/>
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
-      <c r="L13" s="67"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
@@ -2673,10 +2658,10 @@
     </row>
     <row r="14" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="31">
         <v>45200</v>
@@ -2765,10 +2750,10 @@
     </row>
     <row r="15" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="31">
         <v>45199</v>
@@ -2857,10 +2842,10 @@
     </row>
     <row r="16" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="31">
         <v>45202</v>
@@ -2877,7 +2862,7 @@
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
-      <c r="N16" s="65"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="55"/>
       <c r="P16" s="55"/>
       <c r="Q16" s="55"/>
@@ -2949,10 +2934,10 @@
     </row>
     <row r="17" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="31">
         <v>45205</v>
@@ -3041,10 +3026,10 @@
     </row>
     <row r="18" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>11</v>
       </c>
       <c r="C18" s="31">
         <v>45201</v>
@@ -3060,7 +3045,7 @@
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
       <c r="L18" s="55"/>
-      <c r="M18" s="68"/>
+      <c r="M18" s="67"/>
       <c r="N18" s="55"/>
       <c r="O18" s="55"/>
       <c r="P18" s="55"/>
@@ -3133,7 +3118,7 @@
     </row>
     <row r="19" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
@@ -3219,10 +3204,10 @@
     </row>
     <row r="20" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="37">
         <v>45212</v>
@@ -3311,10 +3296,10 @@
     </row>
     <row r="21" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C21" s="37">
         <v>45211</v>
@@ -3403,10 +3388,10 @@
     </row>
     <row r="22" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="37">
         <v>45211</v>
@@ -3495,10 +3480,10 @@
     </row>
     <row r="23" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="37">
         <v>45212</v>
@@ -3587,10 +3572,10 @@
     </row>
     <row r="24" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="37">
         <v>45214</v>
@@ -3679,10 +3664,10 @@
     </row>
     <row r="25" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="37">
         <v>45214</v>
@@ -3771,10 +3756,10 @@
     </row>
     <row r="26" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="37">
         <v>45215</v>
@@ -3863,10 +3848,10 @@
     </row>
     <row r="27" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="37">
         <v>45215</v>
@@ -3955,7 +3940,7 @@
     </row>
     <row r="28" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="40"/>
@@ -4040,11 +4025,11 @@
       <c r="CD28" s="20"/>
     </row>
     <row r="29" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
-        <v>42</v>
+      <c r="A29" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C29" s="43">
         <v>45218</v>
@@ -4133,7 +4118,7 @@
     </row>
     <row r="30" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>14</v>
@@ -4225,10 +4210,10 @@
     </row>
     <row r="31" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C31" s="43">
         <v>45219</v>
@@ -4262,8 +4247,8 @@
       <c r="AB31" s="55"/>
       <c r="AC31" s="55"/>
       <c r="AD31" s="55"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
       <c r="AG31" s="55"/>
       <c r="AH31" s="55"/>
       <c r="AI31" s="55"/>
@@ -4317,10 +4302,10 @@
     </row>
     <row r="32" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C32" s="43">
         <v>45221</v>
@@ -4409,16 +4394,16 @@
     </row>
     <row r="33" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="43">
-        <v>45219</v>
+        <v>45221</v>
       </c>
       <c r="D33" s="43">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="55"/>
@@ -4446,10 +4431,10 @@
       <c r="AB33" s="55"/>
       <c r="AC33" s="55"/>
       <c r="AD33" s="55"/>
-      <c r="AE33" s="58"/>
+      <c r="AE33" s="55"/>
       <c r="AF33" s="55"/>
-      <c r="AG33" s="55"/>
-      <c r="AH33" s="55"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
       <c r="AI33" s="55"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
@@ -4501,16 +4486,16 @@
     </row>
     <row r="34" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C34" s="43">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="D34" s="43">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="55"/>
@@ -4541,9 +4526,9 @@
       <c r="AE34" s="55"/>
       <c r="AF34" s="55"/>
       <c r="AG34" s="55"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="55"/>
+      <c r="AH34" s="55"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="58"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
       <c r="AM34" s="55"/>
@@ -4593,16 +4578,16 @@
     </row>
     <row r="35" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C35" s="43">
-        <v>45220</v>
+        <v>45225</v>
       </c>
       <c r="D35" s="43">
-        <v>45221</v>
+        <v>45226</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="55"/>
@@ -4631,13 +4616,13 @@
       <c r="AC35" s="55"/>
       <c r="AD35" s="55"/>
       <c r="AE35" s="55"/>
-      <c r="AF35" s="58"/>
-      <c r="AG35" s="58"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="55"/>
       <c r="AH35" s="55"/>
       <c r="AI35" s="55"/>
       <c r="AJ35" s="55"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
       <c r="AM35" s="55"/>
       <c r="AN35" s="55"/>
       <c r="AO35" s="55"/>
@@ -4685,16 +4670,16 @@
     </row>
     <row r="36" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C36" s="43">
-        <v>45221</v>
+        <v>45227</v>
       </c>
       <c r="D36" s="43">
-        <v>45223</v>
+        <v>45228</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="55"/>
@@ -4724,14 +4709,14 @@
       <c r="AD36" s="55"/>
       <c r="AE36" s="55"/>
       <c r="AF36" s="55"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
+      <c r="AG36" s="55"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="55"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
-      <c r="AM36" s="55"/>
-      <c r="AN36" s="55"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
       <c r="AO36" s="55"/>
       <c r="AP36" s="55"/>
       <c r="AQ36" s="55"/>
@@ -4777,16 +4762,16 @@
     </row>
     <row r="37" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C37" s="43">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="D37" s="43">
-        <v>45225</v>
+        <v>45228</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="55"/>
@@ -4819,11 +4804,11 @@
       <c r="AG37" s="55"/>
       <c r="AH37" s="55"/>
       <c r="AI37" s="55"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
+      <c r="AJ37" s="55"/>
+      <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
-      <c r="AM37" s="55"/>
-      <c r="AN37" s="55"/>
+      <c r="AM37" s="58"/>
+      <c r="AN37" s="58"/>
       <c r="AO37" s="55"/>
       <c r="AP37" s="55"/>
       <c r="AQ37" s="55"/>
@@ -4869,16 +4854,16 @@
     </row>
     <row r="38" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C38" s="43">
-        <v>45226</v>
+        <v>45223</v>
       </c>
       <c r="D38" s="43">
-        <v>45228</v>
+        <v>45224</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="55"/>
@@ -4910,12 +4895,12 @@
       <c r="AF38" s="55"/>
       <c r="AG38" s="55"/>
       <c r="AH38" s="55"/>
-      <c r="AI38" s="55"/>
-      <c r="AJ38" s="55"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
       <c r="AK38" s="55"/>
-      <c r="AL38" s="24"/>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
+      <c r="AL38" s="55"/>
+      <c r="AM38" s="55"/>
+      <c r="AN38" s="55"/>
       <c r="AO38" s="55"/>
       <c r="AP38" s="55"/>
       <c r="AQ38" s="55"/>
@@ -4961,16 +4946,16 @@
     </row>
     <row r="39" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C39" s="43">
+        <v>45225</v>
+      </c>
+      <c r="D39" s="43">
         <v>45226</v>
-      </c>
-      <c r="D39" s="43">
-        <v>45227</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="55"/>
@@ -5004,9 +4989,9 @@
       <c r="AH39" s="55"/>
       <c r="AI39" s="55"/>
       <c r="AJ39" s="55"/>
-      <c r="AK39" s="55"/>
+      <c r="AK39" s="19"/>
       <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
+      <c r="AM39" s="55"/>
       <c r="AN39" s="55"/>
       <c r="AO39" s="55"/>
       <c r="AP39" s="55"/>
@@ -5053,16 +5038,16 @@
     </row>
     <row r="40" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40" s="43">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="D40" s="43">
-        <v>45221</v>
+        <v>45226</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="55"/>
@@ -5090,14 +5075,14 @@
       <c r="AB40" s="55"/>
       <c r="AC40" s="55"/>
       <c r="AD40" s="55"/>
-      <c r="AE40" s="57"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="55"/>
       <c r="AH40" s="55"/>
       <c r="AI40" s="55"/>
-      <c r="AJ40" s="55"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
+      <c r="AJ40" s="25"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="25"/>
       <c r="AM40" s="55"/>
       <c r="AN40" s="55"/>
       <c r="AO40" s="55"/>
@@ -5145,16 +5130,16 @@
     </row>
     <row r="41" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C41" s="43">
-        <v>45222</v>
+        <v>45227</v>
       </c>
       <c r="D41" s="43">
-        <v>45223</v>
+        <v>45229</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="55"/>
@@ -5185,14 +5170,14 @@
       <c r="AE41" s="55"/>
       <c r="AF41" s="55"/>
       <c r="AG41" s="55"/>
-      <c r="AH41" s="57"/>
-      <c r="AI41" s="57"/>
+      <c r="AH41" s="55"/>
+      <c r="AI41" s="55"/>
       <c r="AJ41" s="55"/>
       <c r="AK41" s="55"/>
       <c r="AL41" s="55"/>
-      <c r="AM41" s="55"/>
-      <c r="AN41" s="55"/>
-      <c r="AO41" s="55"/>
+      <c r="AM41" s="25"/>
+      <c r="AN41" s="25"/>
+      <c r="AO41" s="25"/>
       <c r="AP41" s="55"/>
       <c r="AQ41" s="55"/>
       <c r="AR41" s="55"/>
@@ -5237,16 +5222,16 @@
     </row>
     <row r="42" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="43">
-        <v>45224</v>
+        <v>45230</v>
       </c>
       <c r="D42" s="43">
-        <v>45226</v>
+        <v>45231</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="55"/>
@@ -5279,14 +5264,14 @@
       <c r="AG42" s="55"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
-      <c r="AJ42" s="56"/>
-      <c r="AK42" s="56"/>
-      <c r="AL42" s="56"/>
+      <c r="AJ42" s="55"/>
+      <c r="AK42" s="55"/>
+      <c r="AL42" s="55"/>
       <c r="AM42" s="55"/>
       <c r="AN42" s="55"/>
       <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
+      <c r="AP42" s="25"/>
+      <c r="AQ42" s="25"/>
       <c r="AR42" s="55"/>
       <c r="AS42" s="55"/>
       <c r="AT42" s="55"/>
@@ -5329,16 +5314,16 @@
     </row>
     <row r="43" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="43">
-        <v>45221</v>
+        <v>45229</v>
       </c>
       <c r="D43" s="43">
-        <v>45223</v>
+        <v>45231</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="55"/>
@@ -5368,17 +5353,17 @@
       <c r="AD43" s="55"/>
       <c r="AE43" s="55"/>
       <c r="AF43" s="55"/>
-      <c r="AG43" s="59"/>
-      <c r="AH43" s="59"/>
-      <c r="AI43" s="59"/>
+      <c r="AG43" s="55"/>
+      <c r="AH43" s="55"/>
+      <c r="AI43" s="55"/>
       <c r="AJ43" s="55"/>
       <c r="AK43" s="55"/>
       <c r="AL43" s="55"/>
       <c r="AM43" s="55"/>
       <c r="AN43" s="55"/>
-      <c r="AO43" s="55"/>
-      <c r="AP43" s="55"/>
-      <c r="AQ43" s="55"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
+      <c r="AQ43" s="59"/>
       <c r="AR43" s="55"/>
       <c r="AS43" s="55"/>
       <c r="AT43" s="55"/>
@@ -5421,16 +5406,16 @@
     </row>
     <row r="44" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C44" s="43">
-        <v>45224</v>
+        <v>45227</v>
       </c>
       <c r="D44" s="43">
-        <v>45225</v>
+        <v>45228</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="55"/>
@@ -5463,11 +5448,11 @@
       <c r="AG44" s="55"/>
       <c r="AH44" s="55"/>
       <c r="AI44" s="55"/>
-      <c r="AJ44" s="59"/>
-      <c r="AK44" s="59"/>
+      <c r="AJ44" s="55"/>
+      <c r="AK44" s="55"/>
       <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="55"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="24"/>
       <c r="AO44" s="55"/>
       <c r="AP44" s="55"/>
       <c r="AQ44" s="55"/>
@@ -5513,16 +5498,16 @@
     </row>
     <row r="45" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C45" s="43">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="D45" s="43">
-        <v>45228</v>
+        <v>45231</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="55"/>
@@ -5557,12 +5542,12 @@
       <c r="AI45" s="55"/>
       <c r="AJ45" s="55"/>
       <c r="AK45" s="55"/>
-      <c r="AL45" s="60"/>
-      <c r="AM45" s="60"/>
-      <c r="AN45" s="60"/>
-      <c r="AO45" s="55"/>
-      <c r="AP45" s="55"/>
-      <c r="AQ45" s="55"/>
+      <c r="AL45" s="55"/>
+      <c r="AM45" s="55"/>
+      <c r="AN45" s="55"/>
+      <c r="AO45" s="60"/>
+      <c r="AP45" s="60"/>
+      <c r="AQ45" s="60"/>
       <c r="AR45" s="55"/>
       <c r="AS45" s="55"/>
       <c r="AT45" s="55"/>
@@ -5605,16 +5590,16 @@
     </row>
     <row r="46" spans="1:82" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="43">
-        <v>45229</v>
+        <v>45232</v>
       </c>
       <c r="D46" s="43">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="55"/>
@@ -5652,11 +5637,11 @@
       <c r="AL46" s="55"/>
       <c r="AM46" s="55"/>
       <c r="AN46" s="55"/>
-      <c r="AO46" s="60"/>
-      <c r="AP46" s="60"/>
+      <c r="AO46" s="55"/>
+      <c r="AP46" s="55"/>
       <c r="AQ46" s="55"/>
-      <c r="AR46" s="55"/>
-      <c r="AS46" s="55"/>
+      <c r="AR46" s="60"/>
+      <c r="AS46" s="60"/>
       <c r="AT46" s="55"/>
       <c r="AU46" s="55"/>
       <c r="AV46" s="55"/>
@@ -5697,16 +5682,16 @@
     </row>
     <row r="47" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C47" s="43">
-        <v>45224</v>
+        <v>45234</v>
       </c>
       <c r="D47" s="43">
-        <v>45227</v>
+        <v>45237</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="55"/>
@@ -5739,20 +5724,20 @@
       <c r="AG47" s="55"/>
       <c r="AH47" s="55"/>
       <c r="AI47" s="55"/>
-      <c r="AJ47" s="58"/>
-      <c r="AK47" s="58"/>
-      <c r="AL47" s="58"/>
-      <c r="AM47" s="58"/>
+      <c r="AJ47" s="55"/>
+      <c r="AK47" s="55"/>
+      <c r="AL47" s="55"/>
+      <c r="AM47" s="55"/>
       <c r="AN47" s="55"/>
       <c r="AO47" s="55"/>
       <c r="AP47" s="55"/>
       <c r="AQ47" s="55"/>
       <c r="AR47" s="55"/>
       <c r="AS47" s="55"/>
-      <c r="AT47" s="55"/>
-      <c r="AU47" s="55"/>
-      <c r="AV47" s="55"/>
-      <c r="AW47" s="55"/>
+      <c r="AT47" s="57"/>
+      <c r="AU47" s="57"/>
+      <c r="AV47" s="57"/>
+      <c r="AW47" s="57"/>
       <c r="AX47" s="55"/>
       <c r="AY47" s="55"/>
       <c r="AZ47" s="55"/>
@@ -5789,16 +5774,16 @@
     </row>
     <row r="48" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" s="43">
-        <v>45229</v>
+        <v>45227</v>
       </c>
       <c r="D48" s="43">
-        <v>45231</v>
+        <v>45230</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="55"/>
@@ -5834,11 +5819,11 @@
       <c r="AJ48" s="55"/>
       <c r="AK48" s="55"/>
       <c r="AL48" s="55"/>
-      <c r="AM48" s="55"/>
-      <c r="AN48" s="55"/>
-      <c r="AO48" s="24"/>
-      <c r="AP48" s="24"/>
-      <c r="AQ48" s="24"/>
+      <c r="AM48" s="56"/>
+      <c r="AN48" s="56"/>
+      <c r="AO48" s="56"/>
+      <c r="AP48" s="56"/>
+      <c r="AQ48" s="55"/>
       <c r="AR48" s="55"/>
       <c r="AS48" s="55"/>
       <c r="AT48" s="55"/>
@@ -5881,16 +5866,16 @@
     </row>
     <row r="49" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C49" s="43">
-        <v>45228</v>
+        <v>45238</v>
       </c>
       <c r="D49" s="43">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="55"/>
@@ -5927,9 +5912,9 @@
       <c r="AK49" s="55"/>
       <c r="AL49" s="55"/>
       <c r="AM49" s="55"/>
-      <c r="AN49" s="25"/>
-      <c r="AO49" s="25"/>
-      <c r="AP49" s="25"/>
+      <c r="AN49" s="55"/>
+      <c r="AO49" s="55"/>
+      <c r="AP49" s="55"/>
       <c r="AQ49" s="55"/>
       <c r="AR49" s="55"/>
       <c r="AS49" s="55"/>
@@ -5937,7 +5922,7 @@
       <c r="AU49" s="55"/>
       <c r="AV49" s="55"/>
       <c r="AW49" s="55"/>
-      <c r="AX49" s="55"/>
+      <c r="AX49" s="60"/>
       <c r="AY49" s="55"/>
       <c r="AZ49" s="55"/>
       <c r="BA49" s="55"/>
@@ -5973,16 +5958,16 @@
     </row>
     <row r="50" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" s="43">
-        <v>45232</v>
+        <v>45239</v>
       </c>
       <c r="D50" s="43">
-        <v>45234</v>
+        <v>45241</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="55"/>
@@ -6023,16 +6008,16 @@
       <c r="AO50" s="55"/>
       <c r="AP50" s="55"/>
       <c r="AQ50" s="55"/>
-      <c r="AR50" s="24"/>
-      <c r="AS50" s="24"/>
-      <c r="AT50" s="24"/>
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="55"/>
+      <c r="AT50" s="55"/>
       <c r="AU50" s="55"/>
       <c r="AV50" s="55"/>
       <c r="AW50" s="55"/>
       <c r="AX50" s="55"/>
-      <c r="AY50" s="55"/>
-      <c r="AZ50" s="55"/>
-      <c r="BA50" s="55"/>
+      <c r="AY50" s="56"/>
+      <c r="AZ50" s="56"/>
+      <c r="BA50" s="56"/>
       <c r="BB50" s="55"/>
       <c r="BC50" s="55"/>
       <c r="BD50" s="55"/>
@@ -6065,7 +6050,7 @@
     </row>
     <row r="51" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="45"/>
       <c r="C51" s="46"/>
@@ -6151,10 +6136,10 @@
     </row>
     <row r="52" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C52" s="49">
         <v>45246</v>
@@ -6243,10 +6228,10 @@
     </row>
     <row r="53" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="49">
         <v>45247</v>
@@ -6335,10 +6320,10 @@
     </row>
     <row r="54" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="49">
         <v>45251</v>
@@ -6427,10 +6412,10 @@
     </row>
     <row r="55" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="49">
         <v>45255</v>
@@ -6519,10 +6504,10 @@
     </row>
     <row r="56" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C56" s="49">
         <v>45255</v>
@@ -6611,10 +6596,10 @@
     </row>
     <row r="57" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" s="49">
         <v>45255</v>
@@ -6703,10 +6688,10 @@
     </row>
     <row r="58" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="49">
         <v>45257</v>
@@ -6795,10 +6780,10 @@
     </row>
     <row r="59" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B59" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="49">
         <v>45255</v>
@@ -6887,10 +6872,10 @@
     </row>
     <row r="60" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="49">
         <v>45255</v>
@@ -6979,10 +6964,10 @@
     </row>
     <row r="61" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" s="49">
         <v>45255</v>
@@ -7071,10 +7056,10 @@
     </row>
     <row r="62" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="49">
         <v>45257</v>
@@ -7163,10 +7148,10 @@
     </row>
     <row r="63" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="49">
         <v>45257</v>
@@ -7255,10 +7240,10 @@
     </row>
     <row r="64" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" s="49">
         <v>45255</v>
@@ -7347,10 +7332,10 @@
     </row>
     <row r="65" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C65" s="49">
         <v>45255</v>
@@ -7439,10 +7424,10 @@
     </row>
     <row r="66" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C66" s="49">
         <v>45257</v>
@@ -7531,10 +7516,10 @@
     </row>
     <row r="67" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" s="49">
         <v>45257</v>
@@ -7707,6 +7692,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="BJ4:BP4"/>
+    <mergeCell ref="BQ4:BW4"/>
+    <mergeCell ref="BX4:CD4"/>
+    <mergeCell ref="AV4:BB4"/>
+    <mergeCell ref="BC4:BI4"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="AH4:AN4"/>
     <mergeCell ref="AO4:AU4"/>
@@ -7716,11 +7706,6 @@
     <mergeCell ref="T4:Z4"/>
     <mergeCell ref="AA4:AG4"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="BJ4:BP4"/>
-    <mergeCell ref="BQ4:BW4"/>
-    <mergeCell ref="BX4:CD4"/>
-    <mergeCell ref="AV4:BB4"/>
-    <mergeCell ref="BC4:BI4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
